--- a/excel_list/englishNameTranslate/result.xlsx
+++ b/excel_list/englishNameTranslate/result.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adipr\PycharmProjects\englishTranslate\excel_list\englishNameTranslate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF42C4-4436-43D0-9AA2-C325F5C1E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="142">
   <si>
     <t>No.</t>
   </si>
@@ -473,8 +479,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +543,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -583,7 +597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,9 +629,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -649,6 +681,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -824,26 +874,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="11" width="0" customWidth="1"/>
+    <col min="2" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="0" customWidth="1"/>
-    <col min="14" max="15" width="0" customWidth="1"/>
+    <col min="13" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="25.7109375" customWidth="1"/>
     <col min="17" max="17" width="60.7109375" customWidth="1"/>
     <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="0" customWidth="1"/>
-    <col min="20" max="45" width="0" customWidth="1"/>
+    <col min="19" max="45" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1051,7 +1101,7 @@
         <v>176</v>
       </c>
       <c r="AK2">
-        <v>0.012759648</v>
+        <v>1.2759648E-2</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1081,7 +1131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1149,7 +1199,7 @@
         <v>311</v>
       </c>
       <c r="AK3">
-        <v>0.036689292</v>
+        <v>3.6689291999999998E-2</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1179,7 +1229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1250,7 +1300,7 @@
         <v>272</v>
       </c>
       <c r="AK4">
-        <v>0.02346</v>
+        <v>2.3460000000000002E-2</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1280,7 +1330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1351,7 +1401,7 @@
         <v>206</v>
       </c>
       <c r="AK5">
-        <v>0.023896</v>
+        <v>2.3896000000000001E-2</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1381,7 +1431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1452,7 +1502,7 @@
         <v>485</v>
       </c>
       <c r="AK6">
-        <v>0.0703638</v>
+        <v>7.0363800000000004E-2</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1482,7 +1532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1553,7 +1603,7 @@
         <v>264</v>
       </c>
       <c r="AK7">
-        <v>0.035623104</v>
+        <v>3.5623104000000003E-2</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1583,7 +1633,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1654,7 +1704,7 @@
         <v>184</v>
       </c>
       <c r="AK8">
-        <v>0.0269698</v>
+        <v>2.6969799999999999E-2</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1684,7 +1734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1713,7 +1763,7 @@
         <v>121</v>
       </c>
       <c r="T9">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="U9" t="s">
         <v>141</v>
@@ -1755,7 +1805,7 @@
         <v>193</v>
       </c>
       <c r="AK9">
-        <v>0.012142788</v>
+        <v>1.2142788E-2</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1785,7 +1835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1856,7 +1906,7 @@
         <v>445</v>
       </c>
       <c r="AK10">
-        <v>0.06116436</v>
+        <v>6.1164360000000001E-2</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1886,7 +1936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1915,7 +1965,7 @@
         <v>123</v>
       </c>
       <c r="T11">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="U11" t="s">
         <v>141</v>
@@ -1957,7 +2007,7 @@
         <v>192</v>
       </c>
       <c r="AK11">
-        <v>0.0150144</v>
+        <v>1.5014400000000001E-2</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1987,7 +2037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2016,7 +2066,7 @@
         <v>124</v>
       </c>
       <c r="T12">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="U12" t="s">
         <v>141</v>
@@ -2058,7 +2108,7 @@
         <v>192</v>
       </c>
       <c r="AK12">
-        <v>0.0150144</v>
+        <v>1.5014400000000001E-2</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2088,7 +2138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2120,7 +2170,7 @@
         <v>125</v>
       </c>
       <c r="T13">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="U13" t="s">
         <v>141</v>
@@ -2162,7 +2212,7 @@
         <v>193</v>
       </c>
       <c r="AK13">
-        <v>0.001197758</v>
+        <v>1.1977579999999999E-3</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2192,7 +2242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2263,7 +2313,7 @@
         <v>445</v>
       </c>
       <c r="AK14">
-        <v>0.06116436</v>
+        <v>6.1164360000000001E-2</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2293,7 +2343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
@@ -2364,7 +2414,7 @@
         <v>295</v>
       </c>
       <c r="AK15">
-        <v>0.01393875</v>
+        <v>1.393875E-2</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2394,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>73</v>
       </c>
@@ -2465,7 +2515,7 @@
         <v>290</v>
       </c>
       <c r="AK16">
-        <v>0.03150125</v>
+        <v>3.1501250000000001E-2</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2495,7 +2545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>74</v>
       </c>
@@ -2566,7 +2616,7 @@
         <v>300</v>
       </c>
       <c r="AK17">
-        <v>0.0358425</v>
+        <v>3.5842499999999999E-2</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2596,7 +2646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>75</v>
       </c>
@@ -2667,7 +2717,7 @@
         <v>360</v>
       </c>
       <c r="AK18">
-        <v>0.040887</v>
+        <v>4.0887E-2</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2697,7 +2747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>76</v>
       </c>
@@ -2768,7 +2818,7 @@
         <v>295</v>
       </c>
       <c r="AK19">
-        <v>0.0259128</v>
+        <v>2.59128E-2</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2798,7 +2848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>77</v>
       </c>
@@ -2869,7 +2919,7 @@
         <v>361</v>
       </c>
       <c r="AK20">
-        <v>0.04197708</v>
+        <v>4.197708E-2</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -2899,7 +2949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>78</v>
       </c>
@@ -2970,7 +3020,7 @@
         <v>300</v>
       </c>
       <c r="AK21">
-        <v>0.0311805</v>
+        <v>3.11805E-2</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3000,7 +3050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3071,7 +3121,7 @@
         <v>321</v>
       </c>
       <c r="AK22">
-        <v>0.000976482</v>
+        <v>9.7648199999999998E-4</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3101,7 +3151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -3172,7 +3222,7 @@
         <v>334</v>
       </c>
       <c r="AK23">
-        <v>0.012622194</v>
+        <v>1.2622194E-2</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3202,7 +3252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -3273,7 +3323,7 @@
         <v>417</v>
       </c>
       <c r="AK24">
-        <v>0.0256872</v>
+        <v>2.56872E-2</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3303,7 +3353,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -3374,7 +3424,7 @@
         <v>408</v>
       </c>
       <c r="AK25">
-        <v>0.01905768</v>
+        <v>1.905768E-2</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3404,7 +3454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -3475,7 +3525,7 @@
         <v>408</v>
       </c>
       <c r="AK26">
-        <v>0.01905768</v>
+        <v>1.905768E-2</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -3505,7 +3555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -3573,7 +3623,7 @@
         <v>266</v>
       </c>
       <c r="AK27">
-        <v>0.023845836</v>
+        <v>2.3845835999999999E-2</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -3603,7 +3653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
@@ -3671,7 +3721,7 @@
         <v>254</v>
       </c>
       <c r="AK28">
-        <v>0.020872704</v>
+        <v>2.0872703999999999E-2</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -3699,146 +3749,6 @@
       </c>
       <c r="AT28">
         <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>16</v>
-      </c>
-      <c r="R29" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" t="s">
-        <v>18</v>
-      </c>
-      <c r="T29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U29" t="s">
-        <v>20</v>
-      </c>
-      <c r="V29" t="s">
-        <v>21</v>
-      </c>
-      <c r="W29" t="s">
-        <v>22</v>
-      </c>
-      <c r="X29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
